--- a/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 11:55:04</t>
+          <t>2025-08-27 12:29:54</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 12:29:54</t>
+          <t>2025-08-27 16:48:16</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/Intel - oneDNN/report_DnnlExecutionProvider.xlsx
@@ -6350,7 +6350,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 16:48:16</t>
+          <t>2025-08-29 10:43:50</t>
         </is>
       </c>
     </row>
